--- a/Streamlit_App/data/Metrics/Classification_Models_CD_SE_I_Training_Metrics.xlsx
+++ b/Streamlit_App/data/Metrics/Classification_Models_CD_SE_I_Training_Metrics.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jogeo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jogeo\Desktop\Project\Blood-Brain-Barrier-Drug-Prediction\Streamlit_App\data\Metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CBBCFDC-2E5A-4F19-BA1B-6637EF5CC609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E87C95-7387-40F1-ABFF-D0A3A13FFA55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8BA7D243-AE84-4B4B-99B0-EEB6F54CFBD0}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>Classification Models – Chemical Descriptors, Side Effects and Indications With Feature Selection</t>
   </si>
@@ -69,25 +69,25 @@
     <t>Dummy Classifier</t>
   </si>
   <si>
+    <t>Logistic Regression</t>
+  </si>
+  <si>
+    <t>Support Vector Classification</t>
+  </si>
+  <si>
+    <t>K-Nearest Neighbour Classifier</t>
+  </si>
+  <si>
+    <t>Random Forest Classifier</t>
+  </si>
+  <si>
+    <t>Decision Tree Classifier</t>
+  </si>
+  <si>
+    <t>Stochastic Gradient Descent Classifier</t>
+  </si>
+  <si>
     <t>NA</t>
-  </si>
-  <si>
-    <t>Logistic Regression</t>
-  </si>
-  <si>
-    <t>Support Vector Classification</t>
-  </si>
-  <si>
-    <t>K-Nearest Neighbour Classifier</t>
-  </si>
-  <si>
-    <t>Random Forest Classifier</t>
-  </si>
-  <si>
-    <t>Decision Tree Classifier</t>
-  </si>
-  <si>
-    <t>Stochastic Gradient Descent Classifier</t>
   </si>
 </sst>
 </file>
@@ -95,7 +95,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0000000000"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -121,7 +121,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -194,36 +194,25 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -232,22 +221,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -566,223 +539,234 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="3"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="8"/>
     </row>
     <row r="2" spans="1:8" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="4">
         <v>0.57608695652173902</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="4">
         <v>1</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="4">
         <v>0.57608695652173902</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="4">
         <v>0.73103448275862004</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="4">
         <v>0</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="4">
+        <v>0.79391534391534302</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.8175</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.82454260651628997</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.81698853846321595</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.58701616590174199</v>
+      </c>
+      <c r="H4" s="5">
+        <v>9.9009900990098994E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="7">
-        <v>0.79391534391534302</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0.8175</v>
-      </c>
-      <c r="E4" s="7">
-        <v>0.82454260651628997</v>
-      </c>
-      <c r="F4" s="7">
-        <v>0.81698853846321595</v>
-      </c>
-      <c r="G4" s="7">
-        <v>0.58701616590174199</v>
-      </c>
-      <c r="H4" s="7">
+      <c r="C5" s="4">
+        <v>0.81150793650793596</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.87916666666666599</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.81471988795518102</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.84269892807156399</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.61808120689149604</v>
+      </c>
+      <c r="H5" s="5">
         <v>9.9009900990098994E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
-      <c r="B5" s="4" t="s">
+    <row r="6" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="7">
-        <v>0.81150793650793596</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0.87916666666666599</v>
-      </c>
-      <c r="E5" s="7">
-        <v>0.81471988795518102</v>
-      </c>
-      <c r="F5" s="7">
-        <v>0.84269892807156399</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0.61808120689149604</v>
-      </c>
-      <c r="H5" s="7">
+      <c r="C6" s="4">
+        <v>0.75330687830687804</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.84124999999999905</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.76576272025188397</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.79736873145638698</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.49509786580547399</v>
+      </c>
+      <c r="H6" s="5">
         <v>9.9009900990098994E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
-      <c r="B6" s="4" t="s">
+    <row r="7" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="7">
-        <v>0.75330687830687804</v>
-      </c>
-      <c r="D6" s="7">
-        <v>0.84124999999999905</v>
-      </c>
-      <c r="E6" s="7">
-        <v>0.76576272025188397</v>
-      </c>
-      <c r="F6" s="7">
-        <v>0.79736873145638698</v>
-      </c>
-      <c r="G6" s="7">
-        <v>0.49509786580547399</v>
-      </c>
-      <c r="H6" s="7">
+      <c r="C7" s="4">
+        <v>0.81812169312169303</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.89166666666666605</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.82671310046797897</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.85000236262486695</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.644948014323523</v>
+      </c>
+      <c r="H7" s="5">
         <v>9.9009900990098994E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
-      <c r="B7" s="4" t="s">
+    <row r="8" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="7">
-        <v>0.81812169312169303</v>
-      </c>
-      <c r="D7" s="7">
-        <v>0.89166666666666605</v>
-      </c>
-      <c r="E7" s="7">
-        <v>0.82671310046797897</v>
-      </c>
-      <c r="F7" s="7">
-        <v>0.85000236262486695</v>
-      </c>
-      <c r="G7" s="7">
-        <v>0.644948014323523</v>
-      </c>
-      <c r="H7" s="7">
+      <c r="C8" s="4">
+        <v>0.728439153439153</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.78541666666666599</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.76209892538251001</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.76872983199596101</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.44237023669667402</v>
+      </c>
+      <c r="H8" s="5">
         <v>9.9009900990098994E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
-      <c r="B8" s="4" t="s">
+    <row r="9" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="7">
-        <v>0.728439153439153</v>
-      </c>
-      <c r="D8" s="7">
-        <v>0.78541666666666599</v>
-      </c>
-      <c r="E8" s="7">
-        <v>0.76209892538251001</v>
-      </c>
-      <c r="F8" s="7">
-        <v>0.76872983199596101</v>
-      </c>
-      <c r="G8" s="7">
-        <v>0.44237023669667402</v>
-      </c>
-      <c r="H8" s="7">
+      <c r="C9" s="4">
+        <v>0.78253968253968198</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.82374999999999998</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.80712369158189501</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.81097629863284504</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.55926985812368102</v>
+      </c>
+      <c r="H9" s="5">
         <v>9.9009900990098994E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
-      <c r="B9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="7">
-        <v>0.78253968253968198</v>
-      </c>
-      <c r="D9" s="7">
-        <v>0.82374999999999998</v>
-      </c>
-      <c r="E9" s="7">
-        <v>0.80712369158189501</v>
-      </c>
-      <c r="F9" s="7">
-        <v>0.81097629863284504</v>
-      </c>
-      <c r="G9" s="7">
-        <v>0.55926985812368102</v>
-      </c>
-      <c r="H9" s="7">
-        <v>9.9009900990098994E-3</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A3:A9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
